--- a/tables/TableS11_farm_specifications.xlsx
+++ b/tables/TableS11_farm_specifications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/aquacast/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A263AE-9702-8442-A21F-083427428640}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02255B3C-DCB4-3A4C-9E2E-F940E6C4EAAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="5100" windowWidth="25600" windowHeight="15540" xr2:uid="{AC439BE0-5DA9-1C4A-A6EB-F84CDDA5BF8A}"/>
   </bookViews>
@@ -645,7 +645,7 @@
   <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -680,7 +680,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19">
